--- a/data/vancouver/data_cleaning/vancouver_financial_statement_data_2024.xlsx
+++ b/data/vancouver/data_cleaning/vancouver_financial_statement_data_2024.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boristsao/Documents/Projects/build_canada/vancouver/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boristsao/Documents/Projects/CanadaSpends/data/vancouver/data_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB450EA-740D-7649-87BC-F608D72EEDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56613E0E-251F-914C-BEA4-C2922CCDE833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19660" activeTab="3" xr2:uid="{198AC994-30CA-44B0-9A80-3ECDCF654A84}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19660" activeTab="5" xr2:uid="{198AC994-30CA-44B0-9A80-3ECDCF654A84}"/>
   </bookViews>
   <sheets>
-    <sheet name="Checker" sheetId="3" r:id="rId1"/>
-    <sheet name="cleaned_data" sheetId="2" r:id="rId2"/>
-    <sheet name="cleaned_data2" sheetId="9" r:id="rId3"/>
+    <sheet name="cleaned_data" sheetId="2" r:id="rId1"/>
+    <sheet name="cleaned_data2" sheetId="9" r:id="rId2"/>
+    <sheet name="Checker" sheetId="3" r:id="rId3"/>
     <sheet name="Tables for Summary" sheetId="7" r:id="rId4"/>
     <sheet name="Reference" sheetId="4" r:id="rId5"/>
-    <sheet name="2024_financial_report_raw_data" sheetId="1" r:id="rId6"/>
-    <sheet name="2024_sofi_data" sheetId="6" r:id="rId7"/>
+    <sheet name="cleaned_data3" sheetId="10" r:id="rId6"/>
+    <sheet name="2024_financial_report_raw_data" sheetId="1" r:id="rId7"/>
+    <sheet name="2024_sofi_data" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="780">
   <si>
     <t>Property Taxes, penalties, and interest</t>
   </si>
@@ -2340,6 +2341,48 @@
   </si>
   <si>
     <t>Property Tax Per Capita</t>
+  </si>
+  <si>
+    <t>Note 13</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Note 13 - Additions net of transfers - disposals</t>
+  </si>
+  <si>
+    <t>Building and building improvements</t>
+  </si>
+  <si>
+    <t>Leasehould improvements</t>
+  </si>
+  <si>
+    <t>Land improvements</t>
+  </si>
+  <si>
+    <t>Vehicles, equipment and furniture</t>
+  </si>
+  <si>
+    <t>Computer systems</t>
+  </si>
+  <si>
+    <t>Library books and materials</t>
+  </si>
+  <si>
+    <t>Water system</t>
+  </si>
+  <si>
+    <t>Sewer system</t>
+  </si>
+  <si>
+    <t>Assets under construction</t>
+  </si>
+  <si>
+    <t>Street and structures, including landfill</t>
+  </si>
+  <si>
+    <t>Tangible Capital Assets</t>
   </si>
 </sst>
 </file>
@@ -2350,9 +2393,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000000%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2371,6 +2414,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2413,7 +2469,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2432,14 +2488,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2759,72 +2828,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4437A29F-4068-4689-81AD-412D6014F8BA}">
-  <dimension ref="B2:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1">
-        <f>SUMIFS(cleaned_data!$F$2:$F$131,cleaned_data!$E$2:$E$131,Checker!B2)</f>
-        <v>4130185</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C3" s="1">
-        <f>SUMIFS(cleaned_data!$F$2:$F$131,cleaned_data!$E$2:$E$131,Checker!B3)</f>
-        <v>3269551</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="3">
-        <f>C2-C3</f>
-        <v>860634</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="3">
-        <f>'2024_financial_report_raw_data'!C27</f>
-        <v>860634</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="1">
-        <f>C4-C5</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868E4B8-E7ED-4ABD-B4C5-54720EF9FBE0}">
   <dimension ref="A1:I170"/>
   <sheetViews>
@@ -5537,12 +5540,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB982237-FBFB-6E49-86DB-1CB9AAF4B30A}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8062,12 +8065,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4437A29F-4068-4689-81AD-412D6014F8BA}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUMIFS(cleaned_data!$F$2:$F$131,cleaned_data!$E$2:$E$131,Checker!B2)</f>
+        <v>4130185</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUMIFS(cleaned_data!$F$2:$F$131,cleaned_data!$E$2:$E$131,Checker!B3)</f>
+        <v>3269551</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C2-C3</f>
+        <v>860634</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="3">
+        <f>'2024_financial_report_raw_data'!C27</f>
+        <v>860634</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <f>C4-C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUMIFS(cleaned_data3!$E$2:$E$138,cleaned_data3!$D$2:$D$138,Checker!B9)</f>
+        <v>4130185</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUMIFS(cleaned_data3!$E$2:$E$138,cleaned_data3!$D$2:$D$138,Checker!B10)</f>
+        <v>3910017</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C9-C10</f>
+        <v>220168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3">
+        <f>'2024_financial_report_raw_data'!C43</f>
+        <v>216996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <f>C11-C12</f>
+        <v>3172</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDA02F7-AF10-6E43-AE29-10F500B4C0A3}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8079,30 +8195,30 @@
     <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>761</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(cleaned_data2!E77:E126)</f>
-        <v>3269551</v>
+        <f>SUM(cleaned_data3!E77:E124)</f>
+        <v>3262018</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(cleaned_data2!E2:E76)</f>
+        <f>SUM(cleaned_data3!E2:E76)</f>
         <v>4130185</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>763</v>
       </c>
@@ -8112,7 +8228,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>762</v>
       </c>
@@ -8121,17 +8237,17 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>764</v>
       </c>
       <c r="B6" s="10">
         <f>B2/B5*1000</f>
-        <v>4931.4494720965304</v>
+        <v>4920.0874811463045</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>765</v>
       </c>
@@ -8141,16 +8257,26 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>8282985</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8925037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <f>J9-I9</f>
+        <v>642052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>758</v>
       </c>
@@ -8162,7 +8288,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -8171,12 +8297,12 @@
         <v>298950</v>
       </c>
       <c r="C12" s="9">
-        <f>B12/$B$2</f>
-        <v>9.1434573126401755E-2</v>
+        <f t="shared" ref="C12:C20" si="0">B12/$B$2</f>
+        <v>9.1645723598091727E-2</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -8185,12 +8311,12 @@
         <v>474767</v>
       </c>
       <c r="C13" s="9">
-        <f>B13/$B$2</f>
-        <v>0.14520862344707269</v>
+        <f t="shared" si="0"/>
+        <v>0.14554395469307649</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -8199,12 +8325,12 @@
         <v>201574</v>
       </c>
       <c r="C14" s="9">
-        <f>B14/$B$2</f>
-        <v>6.1651890427768218E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1794263550967531E-2</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -8213,12 +8339,12 @@
         <v>262403</v>
       </c>
       <c r="C15" s="9">
-        <f>B15/$B$2</f>
-        <v>8.0256585690206397E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0441922760695991E-2</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -8227,8 +8353,8 @@
         <v>416446</v>
       </c>
       <c r="C16" s="9">
-        <f>B16/$B$2</f>
-        <v>0.12737100598828402</v>
+        <f t="shared" si="0"/>
+        <v>0.12766514470490353</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -8241,8 +8367,8 @@
         <v>92675</v>
       </c>
       <c r="C17" s="9">
-        <f>B17/$B$2</f>
-        <v>2.8344870595381447E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.8410327594758828E-2</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -8255,8 +8381,8 @@
         <v>292966</v>
       </c>
       <c r="C18" s="9">
-        <f>B18/$B$2</f>
-        <v>8.960435240190473E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9811276332626006E-2</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -8269,8 +8395,8 @@
         <v>193107</v>
       </c>
       <c r="C19" s="9">
-        <f>B19/$B$2</f>
-        <v>5.9062238209466683E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9198631031465797E-2</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -8283,8 +8409,8 @@
         <v>70756</v>
       </c>
       <c r="C20" s="9">
-        <f>B20/$B$2</f>
-        <v>2.1640891975687183E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1690867432368553E-2</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -8473,11 +8599,2693 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E55661C-304C-E047-A84B-C6401F7875C1}">
+  <dimension ref="A1:H157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2203003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1">
+        <v>319</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="1">
+        <v>425830</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="1">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="1">
+        <v>643</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1886</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1772</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="1">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="1">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="1">
+        <v>124880</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="1">
+        <v>24813</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="1">
+        <v>680</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="1">
+        <v>125658</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4356</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1867</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="1">
+        <v>61678</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="1">
+        <v>26898</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="1">
+        <v>16780</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1227</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="1">
+        <v>15289</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7985</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9319</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13702</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="1">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="1">
+        <v>514</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11748</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4211</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7391</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="1">
+        <v>295</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2205</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="1">
+        <v>952</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="1">
+        <v>783</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1359</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="1">
+        <v>15750</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="1">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="1">
+        <v>19889</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9929</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11207</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8406</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2716</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="1">
+        <v>32245</v>
+      </c>
+      <c r="F47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="1">
+        <v>32356</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="1">
+        <v>12437</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="1">
+        <v>13328</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="1">
+        <v>38903</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3879</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5725</v>
+      </c>
+      <c r="F53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4671</v>
+      </c>
+      <c r="F54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="1">
+        <v>951</v>
+      </c>
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="1">
+        <v>172468</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="1">
+        <v>47726</v>
+      </c>
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="1">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="1">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="1">
+        <v>16941</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3278</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10499</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="1">
+        <v>15337</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1217</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="1">
+        <v>23437</v>
+      </c>
+      <c r="F66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="1">
+        <v>184527</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="1">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="1">
+        <v>122807</v>
+      </c>
+      <c r="F69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="1">
+        <v>51281</v>
+      </c>
+      <c r="F70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="1">
+        <v>750</v>
+      </c>
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="1">
+        <v>35834</v>
+      </c>
+      <c r="F72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="1">
+        <v>85054</v>
+      </c>
+      <c r="F73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5476</v>
+      </c>
+      <c r="F74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="1">
+        <v>7753</v>
+      </c>
+      <c r="F75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="1">
+        <v>185</v>
+      </c>
+      <c r="F76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="1">
+        <v>737939</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="1">
+        <v>174056</v>
+      </c>
+      <c r="F78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="1">
+        <v>21576</v>
+      </c>
+      <c r="F79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="1">
+        <v>32217</v>
+      </c>
+      <c r="F80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E81" s="1">
+        <v>119</v>
+      </c>
+      <c r="F81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(B82,Reference!$A$2:$B$17,2,0)</f>
+        <v>General Government</v>
+      </c>
+      <c r="D82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="1">
+        <v>138594</v>
+      </c>
+      <c r="F82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(B83,Reference!$A$2:$B$17,2,0)</f>
+        <v>General Government</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="1">
+        <v>27427</v>
+      </c>
+      <c r="F83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(B84,Reference!$A$2:$B$17,2,0)</f>
+        <v>General Government</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="1">
+        <v>95320</v>
+      </c>
+      <c r="F84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(B85,Reference!$A$2:$B$17,2,0)</f>
+        <v>General Government</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6898</v>
+      </c>
+      <c r="F85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(B86,Reference!$A$2:$B$17,2,0)</f>
+        <v>General Government</v>
+      </c>
+      <c r="D86" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" s="1">
+        <v>30711</v>
+      </c>
+      <c r="F86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(B87,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="1">
+        <v>381131</v>
+      </c>
+      <c r="F87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(B88,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43481</v>
+      </c>
+      <c r="F88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(B89,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="1">
+        <v>37126</v>
+      </c>
+      <c r="F89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(B90,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D90" t="s">
+        <v>166</v>
+      </c>
+      <c r="E90" s="1">
+        <v>453</v>
+      </c>
+      <c r="F90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(B91,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D91" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="1">
+        <v>12576</v>
+      </c>
+      <c r="F91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(B92,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D92" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92" s="1">
+        <v>171203</v>
+      </c>
+      <c r="F92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(B93,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D93" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7532</v>
+      </c>
+      <c r="F93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(B94,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D94" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="1">
+        <v>13828</v>
+      </c>
+      <c r="F94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(B95,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D95" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2979</v>
+      </c>
+      <c r="F95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(B96,Reference!$A$2:$B$17,2,0)</f>
+        <v>Protective Services</v>
+      </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6032</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(B97,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D97" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" s="1">
+        <v>149720</v>
+      </c>
+      <c r="F97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(B98,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D98" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="1">
+        <v>17092</v>
+      </c>
+      <c r="F98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(B99,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" s="1">
+        <v>9485</v>
+      </c>
+      <c r="F99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(B100,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3129</v>
+      </c>
+      <c r="F100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(B101,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="1">
+        <v>82977</v>
+      </c>
+      <c r="F101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" t="str">
+        <f>VLOOKUP(B102,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" s="1">
+        <v>77759</v>
+      </c>
+      <c r="F102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="str">
+        <f>VLOOKUP(B103,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" s="1">
+        <v>24732</v>
+      </c>
+      <c r="F103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" t="str">
+        <f>VLOOKUP(B104,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" s="1">
+        <v>258676</v>
+      </c>
+      <c r="F104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" t="str">
+        <f>VLOOKUP(B105,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D105" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" s="1">
+        <v>16598</v>
+      </c>
+      <c r="F105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="str">
+        <f>VLOOKUP(B106,Reference!$A$2:$B$17,2,0)</f>
+        <v>Engineering &amp; Public Works</v>
+      </c>
+      <c r="D106" t="s">
+        <v>166</v>
+      </c>
+      <c r="E106" s="1">
+        <v>38681</v>
+      </c>
+      <c r="F106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="str">
+        <f>VLOOKUP(B107,Reference!$A$2:$B$17,2,0)</f>
+        <v>Community Planning &amp; Development</v>
+      </c>
+      <c r="D107" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" s="1">
+        <v>80241</v>
+      </c>
+      <c r="F107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="str">
+        <f>VLOOKUP(B108,Reference!$A$2:$B$17,2,0)</f>
+        <v>Community Planning &amp; Development</v>
+      </c>
+      <c r="D108" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108" s="1">
+        <v>8014</v>
+      </c>
+      <c r="F108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="str">
+        <f>VLOOKUP(B109,Reference!$A$2:$B$17,2,0)</f>
+        <v>Community Planning &amp; Development</v>
+      </c>
+      <c r="D109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="str">
+        <f>VLOOKUP(B110,Reference!$A$2:$B$17,2,0)</f>
+        <v>Community Planning &amp; Development</v>
+      </c>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="str">
+        <f>VLOOKUP(B111,Reference!$A$2:$B$17,2,0)</f>
+        <v>Community Planning &amp; Development</v>
+      </c>
+      <c r="D111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" s="1">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" t="str">
+        <f>VLOOKUP(B112,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" s="1">
+        <v>156870</v>
+      </c>
+      <c r="F112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" t="str">
+        <f>VLOOKUP(B113,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D113" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" s="1">
+        <v>17363</v>
+      </c>
+      <c r="F113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="str">
+        <f>VLOOKUP(B114,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D114" t="s">
+        <v>166</v>
+      </c>
+      <c r="E114" s="1">
+        <v>81811</v>
+      </c>
+      <c r="F114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" t="str">
+        <f>VLOOKUP(B115,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="1">
+        <v>5909</v>
+      </c>
+      <c r="F115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" t="str">
+        <f>VLOOKUP(B116,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" s="1">
+        <v>31013</v>
+      </c>
+      <c r="F116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="str">
+        <f>VLOOKUP(B117,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" s="1">
+        <v>65249</v>
+      </c>
+      <c r="F117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="str">
+        <f>VLOOKUP(B118,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D118" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" s="1">
+        <v>83822</v>
+      </c>
+      <c r="F118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="str">
+        <f>VLOOKUP(B119,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D119" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" s="1">
+        <v>25774</v>
+      </c>
+      <c r="F119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="str">
+        <f>VLOOKUP(B120,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D120" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="1">
+        <v>171</v>
+      </c>
+      <c r="F120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" t="str">
+        <f>VLOOKUP(B121,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D121" t="s">
+        <v>166</v>
+      </c>
+      <c r="E121" s="1">
+        <v>18091</v>
+      </c>
+      <c r="F121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" t="str">
+        <f>VLOOKUP(B122,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D122" t="s">
+        <v>166</v>
+      </c>
+      <c r="E122" s="1">
+        <v>51760</v>
+      </c>
+      <c r="F122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" t="str">
+        <f>VLOOKUP(B123,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D123" t="s">
+        <v>166</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2579</v>
+      </c>
+      <c r="F123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" t="str">
+        <f>VLOOKUP(B124,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D124" t="s">
+        <v>166</v>
+      </c>
+      <c r="E124" s="1">
+        <v>8884</v>
+      </c>
+      <c r="F124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" t="str">
+        <f>VLOOKUP(B125,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125" s="1">
+        <v>286</v>
+      </c>
+      <c r="F125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" t="str">
+        <f>VLOOKUP(B126,Reference!$A$2:$B$17,2,0)</f>
+        <v>Parks, Recreation &amp; Cultural Services</v>
+      </c>
+      <c r="D126" t="s">
+        <v>166</v>
+      </c>
+      <c r="E126" s="1">
+        <v>7247</v>
+      </c>
+      <c r="F126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B127" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C127" t="s">
+        <v>779</v>
+      </c>
+      <c r="D127" t="s">
+        <v>166</v>
+      </c>
+      <c r="E127" s="1">
+        <v>194370</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C128" t="s">
+        <v>779</v>
+      </c>
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+      <c r="E128" s="1">
+        <v>8657</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C129" t="s">
+        <v>779</v>
+      </c>
+      <c r="D129" t="s">
+        <v>166</v>
+      </c>
+      <c r="E129" s="1">
+        <v>129588</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C130" t="s">
+        <v>779</v>
+      </c>
+      <c r="D130" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="1">
+        <v>14169</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C131" t="s">
+        <v>779</v>
+      </c>
+      <c r="D131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" s="1">
+        <v>30821</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C132" t="s">
+        <v>779</v>
+      </c>
+      <c r="D132" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2792</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C133" t="s">
+        <v>779</v>
+      </c>
+      <c r="D133" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" s="1">
+        <v>180</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" t="s">
+        <v>779</v>
+      </c>
+      <c r="D134" t="s">
+        <v>166</v>
+      </c>
+      <c r="E134" s="1">
+        <v>35317</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>779</v>
+      </c>
+      <c r="D135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="1">
+        <v>28583</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>779</v>
+      </c>
+      <c r="D136" t="s">
+        <v>166</v>
+      </c>
+      <c r="E136" s="1">
+        <v>97881</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C137" t="s">
+        <v>779</v>
+      </c>
+      <c r="D137" t="s">
+        <v>166</v>
+      </c>
+      <c r="E137" s="1">
+        <v>99694</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C138" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>166</v>
+      </c>
+      <c r="E138" s="1">
+        <v>-1586</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1C804-6FD6-417F-81BD-ECBAA229F373}">
-  <dimension ref="A3:H274"/>
+  <dimension ref="A3:J287"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8486,6 +11294,8 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8915,7 +11725,7 @@
         <v>9056340</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -8932,13 +11742,13 @@
         <v>9587916</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
@@ -8955,7 +11765,7 @@
         <v>531576</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -8968,8 +11778,11 @@
       <c r="D36" s="1">
         <v>-443199</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -8982,8 +11795,11 @@
       <c r="D37" s="1">
         <v>-33423</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -8996,8 +11812,11 @@
       <c r="D38" s="1">
         <v>218661</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -9011,7 +11830,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -9025,7 +11844,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -9041,8 +11860,9 @@
         <f>SUM(D36:D40)</f>
         <v>-252519</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -9055,8 +11875,9 @@
       <c r="D42" s="1">
         <v>-841</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9073,12 +11894,12 @@
         <v>278216</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -9092,7 +11913,7 @@
         <v>1132873</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9109,7 +11930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -9291,7 +12112,7 @@
         <v>-112373</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -9302,7 +12123,7 @@
         <v>215106</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>57</v>
       </c>
@@ -9316,7 +12137,7 @@
         <v>206802</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -9327,7 +12148,7 @@
         <v>-443199</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -9338,7 +12159,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>60</v>
       </c>
@@ -9352,7 +12173,7 @@
         <v>-442717</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>59</v>
       </c>
@@ -9363,7 +12184,7 @@
         <v>-474644</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>61</v>
       </c>
@@ -9376,7 +12197,7 @@
         <v>-93385</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -9387,7 +12208,7 @@
         <v>900532</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -9400,346 +12221,286 @@
         <v>807147</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>768</v>
+      </c>
+      <c r="C75">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="C76" s="1">
+        <v>194370</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>771</v>
       </c>
       <c r="C77" s="1">
-        <v>2203003</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2072193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8657</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>769</v>
       </c>
       <c r="C78" s="1">
-        <v>34291</v>
-      </c>
-      <c r="D78" s="1">
-        <v>34440</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>129588</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79">
-        <v>319</v>
-      </c>
-      <c r="D79">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="3">
-        <f>SUM(C77:C79)</f>
-        <v>2237613</v>
-      </c>
-      <c r="D80" s="3">
-        <f>SUM(D77:D79)</f>
-        <v>2107010</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C79" s="1">
+        <v>14169</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>772</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30821</v>
+      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>773</v>
       </c>
       <c r="C81" s="1">
-        <v>737939</v>
-      </c>
-      <c r="D81" s="1">
-        <v>724075</v>
-      </c>
+        <v>2792</v>
+      </c>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>774</v>
       </c>
       <c r="C82" s="1">
-        <v>174056</v>
-      </c>
-      <c r="D82" s="1">
-        <v>147538</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="1">
-        <v>21576</v>
-      </c>
-      <c r="D83" s="1">
-        <v>21576</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>778</v>
       </c>
       <c r="C84" s="1">
-        <v>32217</v>
-      </c>
-      <c r="D84" s="1">
-        <v>29978</v>
-      </c>
+        <v>35317</v>
+      </c>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>775</v>
       </c>
       <c r="C85" s="1">
-        <v>119</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>28583</v>
+      </c>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="3">
-        <f>SUM(C81:C85)</f>
-        <v>965907</v>
-      </c>
-      <c r="D86" s="3">
-        <f>SUM(D81:D84)</f>
-        <v>923167</v>
-      </c>
+      <c r="A86" t="s">
+        <v>776</v>
+      </c>
+      <c r="C86" s="1">
+        <v>97881</v>
+      </c>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="3">
-        <f>C80-C86</f>
-        <v>1271706</v>
-      </c>
-      <c r="D87" s="3">
-        <f>D80-D86</f>
-        <v>1183843</v>
-      </c>
+      <c r="A87" t="s">
+        <v>777</v>
+      </c>
+      <c r="C87" s="1">
+        <v>99694</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>642052</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C90" s="1">
-        <v>15289</v>
+        <v>2203003</v>
       </c>
       <c r="D90" s="1">
-        <v>20476</v>
-      </c>
-      <c r="E90" t="s">
-        <v>73</v>
+        <v>2072193</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C91" s="1">
-        <v>13702</v>
+        <v>34291</v>
       </c>
       <c r="D91" s="1">
-        <v>5814</v>
-      </c>
-      <c r="E91" t="s">
-        <v>73</v>
+        <v>34440</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="1">
-        <v>7707</v>
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>319</v>
       </c>
       <c r="D92">
-        <v>700</v>
-      </c>
-      <c r="E92" t="s">
-        <v>73</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" s="1">
-        <v>4367</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1073</v>
-      </c>
-      <c r="E93" t="s">
-        <v>85</v>
+      <c r="A93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3">
+        <f>SUM(C90:C92)</f>
+        <v>2237613</v>
+      </c>
+      <c r="D93" s="3">
+        <f>SUM(D90:D92)</f>
+        <v>2107010</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C94" s="1">
-        <v>3618</v>
+        <v>737939</v>
       </c>
       <c r="D94" s="1">
-        <v>1390</v>
-      </c>
-      <c r="E94" t="s">
-        <v>73</v>
+        <v>724075</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" s="1">
-        <v>13</v>
+        <v>174056</v>
       </c>
       <c r="D95" s="1">
-        <v>813</v>
-      </c>
-      <c r="E95" t="s">
-        <v>73</v>
+        <v>147538</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1">
-        <v>1612</v>
+        <v>21576</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>85</v>
+        <v>21576</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C97" s="1">
-        <v>514</v>
+        <v>32217</v>
       </c>
       <c r="D97" s="1">
-        <v>341</v>
-      </c>
-      <c r="E97" t="s">
-        <v>73</v>
+        <v>29978</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C98" s="1">
-        <v>98</v>
-      </c>
-      <c r="D98" s="1">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>85</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" s="1">
+      <c r="A99" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="3">
+        <f>SUM(C94:C98)</f>
+        <v>965907</v>
+      </c>
+      <c r="D99" s="3">
+        <f>SUM(D94:D97)</f>
+        <v>923167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="1">
-        <v>13916</v>
-      </c>
-      <c r="E99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
-        <v>673</v>
-      </c>
-      <c r="E100" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1">
-        <v>121</v>
-      </c>
-      <c r="E101" t="s">
-        <v>85</v>
+      <c r="C100" s="3">
+        <f>C93-C99</f>
+        <v>1271706</v>
+      </c>
+      <c r="D100" s="3">
+        <f>D93-D99</f>
+        <v>1183843</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
-        <v>27</v>
-      </c>
-      <c r="E102" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C103" s="3">
-        <f>SUM(C90:C102)</f>
-        <v>46920</v>
-      </c>
-      <c r="D103" s="3">
-        <f>SUM(D90:D102)</f>
-        <v>45346</v>
+      <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="1">
+        <v>15289</v>
+      </c>
+      <c r="D103" s="1">
+        <v>20476</v>
+      </c>
+      <c r="E103" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>13702</v>
       </c>
       <c r="D104" s="1">
-        <v>49119</v>
+        <v>5814</v>
       </c>
       <c r="E104" t="s">
         <v>73</v>
@@ -9747,83 +12508,83 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C105" s="1">
-        <v>19889</v>
-      </c>
-      <c r="D105" s="1">
-        <v>19890</v>
+        <v>7707</v>
+      </c>
+      <c r="D105">
+        <v>700</v>
       </c>
       <c r="E105" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C106" s="1">
-        <v>15750</v>
+        <v>4367</v>
       </c>
       <c r="D106" s="1">
-        <v>11175</v>
+        <v>1073</v>
       </c>
       <c r="E106" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C107" s="1">
-        <v>11748</v>
+        <v>3618</v>
       </c>
       <c r="D107" s="1">
-        <v>10788</v>
+        <v>1390</v>
       </c>
       <c r="E107" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C108" s="1">
-        <v>7317</v>
+        <v>13</v>
       </c>
       <c r="D108" s="1">
-        <v>6243</v>
+        <v>813</v>
       </c>
       <c r="E108" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C109" s="1">
-        <v>3949</v>
+        <v>1612</v>
       </c>
       <c r="D109" s="1">
-        <v>5023</v>
+        <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C110" s="1">
-        <v>2205</v>
+        <v>514</v>
       </c>
       <c r="D110" s="1">
-        <v>2122</v>
+        <v>341</v>
       </c>
       <c r="E110" t="s">
         <v>73</v>
@@ -9831,13 +12592,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C111" s="1">
-        <v>1359</v>
+        <v>98</v>
       </c>
       <c r="D111" s="1">
-        <v>1443</v>
+        <v>2</v>
       </c>
       <c r="E111" t="s">
         <v>85</v>
@@ -9845,13 +12606,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C112" s="1">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>661</v>
+        <v>13916</v>
       </c>
       <c r="E112" t="s">
         <v>73</v>
@@ -9859,27 +12620,27 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C113" s="1">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="E113" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C114" s="1">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
         <v>85</v>
@@ -9887,110 +12648,110 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C115" s="1">
-        <v>952</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" s="1">
-        <v>101</v>
-      </c>
-      <c r="D116" s="1">
-        <v>30</v>
-      </c>
-      <c r="E116" t="s">
-        <v>85</v>
+      <c r="A116" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="3">
+        <f>SUM(C103:C115)</f>
+        <v>46920</v>
+      </c>
+      <c r="D116" s="3">
+        <f>SUM(D103:D115)</f>
+        <v>45346</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C117" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>49119</v>
       </c>
       <c r="E117" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C118" s="1">
-        <v>74</v>
+        <v>19889</v>
       </c>
       <c r="D118" s="1">
-        <v>608</v>
+        <v>19890</v>
       </c>
       <c r="E118" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="D119" s="1">
-        <v>104</v>
+        <v>11175</v>
       </c>
       <c r="E119" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>11748</v>
       </c>
       <c r="D120" s="1">
-        <v>670</v>
+        <v>10788</v>
       </c>
       <c r="E120" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" s="3">
-        <f>SUM(C104:C120)</f>
-        <v>64684</v>
-      </c>
-      <c r="D121" s="3">
-        <f>SUM(D104:D120)</f>
-        <v>107876</v>
+      <c r="A121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="1">
+        <v>7317</v>
+      </c>
+      <c r="D121" s="1">
+        <v>6243</v>
+      </c>
+      <c r="E121" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C122" s="1">
-        <v>11207</v>
+        <v>3949</v>
       </c>
       <c r="D122" s="1">
-        <v>5773</v>
+        <v>5023</v>
       </c>
       <c r="E122" t="s">
         <v>73</v>
@@ -9998,13 +12759,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C123" s="1">
-        <v>9929</v>
+        <v>2205</v>
       </c>
       <c r="D123" s="1">
-        <v>13566</v>
+        <v>2122</v>
       </c>
       <c r="E123" t="s">
         <v>73</v>
@@ -10012,13 +12773,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="C124" s="1">
-        <v>8406</v>
+        <v>1359</v>
       </c>
       <c r="D124" s="1">
-        <v>9217</v>
+        <v>1443</v>
       </c>
       <c r="E124" t="s">
         <v>85</v>
@@ -10026,13 +12787,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C125" s="1">
-        <v>2716</v>
+        <v>708</v>
       </c>
       <c r="D125" s="1">
-        <v>3774</v>
+        <v>661</v>
       </c>
       <c r="E125" t="s">
         <v>73</v>
@@ -10040,213 +12801,288 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3">
-        <f>SUM(C122:C126)</f>
-        <v>32258</v>
-      </c>
-      <c r="D127" s="3">
-        <f>SUM(D122:D126)</f>
-        <v>32330</v>
+      <c r="A127" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="1">
+        <v>262</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="1">
+        <v>952</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="1">
+        <v>101</v>
+      </c>
+      <c r="D129" s="1">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="1">
+        <v>75</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="1">
+        <v>74</v>
+      </c>
+      <c r="D131" s="1">
+        <v>608</v>
+      </c>
+      <c r="E131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>104</v>
+      </c>
+      <c r="E132" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>670</v>
+      </c>
+      <c r="E133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="3">
+        <f>SUM(C117:C133)</f>
+        <v>64684</v>
+      </c>
+      <c r="D134" s="3">
+        <f>SUM(D117:D133)</f>
+        <v>107876</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" s="1">
+        <v>11207</v>
+      </c>
+      <c r="D135" s="1">
+        <v>5773</v>
+      </c>
+      <c r="E135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="1">
+        <v>9929</v>
+      </c>
+      <c r="D136" s="1">
+        <v>13566</v>
+      </c>
+      <c r="E136" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="1">
+        <v>8406</v>
+      </c>
+      <c r="D137" s="1">
+        <v>9217</v>
+      </c>
+      <c r="E137" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2716</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3774</v>
+      </c>
+      <c r="E138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3">
+        <f>SUM(C135:C139)</f>
+        <v>32258</v>
+      </c>
+      <c r="D140" s="3">
+        <f>SUM(D135:D139)</f>
+        <v>32330</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>99</v>
       </c>
-      <c r="C128" s="3">
-        <f>C103+C121+C127</f>
+      <c r="C141" s="3">
+        <f>C116+C134+C140</f>
         <v>143862</v>
       </c>
-      <c r="D128" s="3">
-        <f>D103+D121+D127</f>
+      <c r="D141" s="3">
+        <f>D116+D134+D140</f>
         <v>185552</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C144" s="1">
         <v>1271706</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="3">
-        <f>C131</f>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3">
+        <f>C144</f>
         <v>1271706</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>15</v>
       </c>
-      <c r="C133">
+      <c r="C146">
         <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="1">
-        <v>425830</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>102</v>
-      </c>
-      <c r="C136" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="3">
-        <f>SUM(C133:C136)</f>
-        <v>425996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="1">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="1">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="1">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>101</v>
-      </c>
-      <c r="C143" s="1">
-        <v>124880</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>102</v>
-      </c>
-      <c r="C144" s="1">
-        <v>24813</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="1">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C146" s="3">
-        <f>SUM(C138:C145)</f>
-        <v>155024</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="1">
-        <v>125658</v>
+        <v>425830</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C148" s="1">
-        <v>4356</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C149" s="1">
-        <v>1867</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C150" s="3">
-        <f>SUM(C147:C149)</f>
-        <v>131881</v>
+        <f>SUM(C146:C149)</f>
+        <v>425996</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -10254,7 +13090,7 @@
         <v>15</v>
       </c>
       <c r="C151" s="1">
-        <v>61678</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -10262,440 +13098,440 @@
         <v>16</v>
       </c>
       <c r="C152" s="1">
-        <v>2</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C153" s="1">
-        <v>26898</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C154" s="1">
-        <v>16780</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1">
-        <v>1227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="3">
-        <f>SUM(C151:C155)</f>
-        <v>106585</v>
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="1">
+        <v>124880</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C157" s="1">
-        <v>54750</v>
+        <v>24813</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C158" s="1">
-        <v>3048</v>
+        <v>680</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="1">
-        <v>3650</v>
+      <c r="A159" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" s="3">
+        <f>SUM(C151:C158)</f>
+        <v>155024</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C160" s="1">
-        <v>28331</v>
+        <v>125658</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C161" s="1">
-        <v>16322</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1">
-        <v>3841</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>101</v>
-      </c>
-      <c r="C163" s="1">
-        <v>404</v>
+      <c r="A163" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C163" s="3">
+        <f>SUM(C160:C162)</f>
+        <v>131881</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C164" s="1">
-        <v>32169</v>
+        <v>61678</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C165" s="1">
-        <v>1347</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="3">
-        <f>SUM(C157:C165)</f>
-        <v>143862</v>
+      <c r="A166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1">
+        <v>26898</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C167" s="1">
-        <v>32245</v>
+        <v>16780</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C168" s="1">
-        <v>32356</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="1">
-        <v>12437</v>
+      <c r="A169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="3">
+        <f>SUM(C164:C168)</f>
+        <v>106585</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C170" s="1">
-        <v>13328</v>
+        <v>54750</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C171" s="1">
-        <v>38903</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C172" s="1">
-        <v>3879</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C173" s="1">
-        <v>5725</v>
+        <v>28331</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="C174" s="1">
-        <v>4671</v>
+        <v>16322</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C175" s="1">
-        <v>951</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="3">
-        <f>SUM(C167:C175)</f>
-        <v>144495</v>
+      <c r="A176" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" s="1">
+        <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C177" s="1">
-        <v>172468</v>
+        <v>32169</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="3">
-        <f>SUM(C177)</f>
-        <v>172468</v>
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1347</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="1">
-        <v>47726</v>
+      <c r="A179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="3">
+        <f>SUM(C170:C178)</f>
+        <v>143862</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C180" s="1">
-        <v>15</v>
+        <v>32245</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" s="1">
-        <v>124</v>
+        <v>32356</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C182" s="1">
-        <v>16941</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C183" s="1">
-        <v>3278</v>
+        <v>13328</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C184" s="1">
-        <v>1</v>
+        <v>38903</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C185" s="1">
-        <v>10499</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C186" s="1">
-        <v>15337</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>102</v>
+      </c>
+      <c r="C187" s="1">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="C187" s="1">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C188" s="3">
-        <f>SUM(C179:C187)</f>
-        <v>95138</v>
+      <c r="C188" s="1">
+        <v>951</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="A189" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="3">
+        <f>SUM(C180:C188)</f>
+        <v>144495</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="1">
-        <v>23437</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" s="3">
-        <f>SUM(C189)</f>
-        <v>23437</v>
+      <c r="C190" s="1">
+        <v>172468</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="1">
-        <v>184527</v>
+      <c r="A191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="3">
+        <f>SUM(C190)</f>
+        <v>172468</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C192" s="1">
-        <v>0</v>
+        <v>47726</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194" s="1">
-        <v>122807</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C195" s="1">
-        <v>51281</v>
+        <v>16941</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C196" s="1">
-        <v>750</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C197" s="1">
-        <v>35834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C198" s="1">
-        <v>85054</v>
+        <v>10499</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" s="1">
+        <v>15337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>22</v>
       </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" s="3">
-        <f>SUM(C191:C199)</f>
-        <v>480272</v>
+      <c r="C200" s="1">
+        <v>1217</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>15</v>
-      </c>
-      <c r="C201" s="1">
-        <v>5476</v>
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="3">
+        <f>SUM(C192:C200)</f>
+        <v>95138</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C202" s="1">
-        <v>0</v>
+        <v>23437</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>17</v>
-      </c>
-      <c r="C203" s="1">
-        <v>7753</v>
+      <c r="A203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="3">
+        <f>SUM(C202)</f>
+        <v>23437</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C204" s="1">
-        <v>0</v>
+        <v>184527</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C205" s="1">
         <v>0</v>
@@ -10703,511 +13539,617 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C206" s="1">
-        <v>185</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C207" s="1">
-        <v>0</v>
+        <v>122807</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
+        <v>51281</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>105</v>
+      </c>
+      <c r="C209" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>101</v>
+      </c>
+      <c r="C210" s="1">
+        <v>35834</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>102</v>
+      </c>
+      <c r="C211" s="1">
+        <v>85054</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>22</v>
       </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="1">
+      <c r="B212" s="2"/>
+      <c r="C212" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C210" s="3">
-        <f>SUM(C201:C209)</f>
-        <v>13414</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="1">
-        <f>C210+C200+C190+C188+C178+C176+C132+C137+C146+C150+C156+C166</f>
-        <v>3164278</v>
-      </c>
-    </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>112</v>
-      </c>
-      <c r="C213" s="1">
-        <v>138594</v>
+      <c r="A213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="3">
+        <f>SUM(C204:C212)</f>
+        <v>480272</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C214" s="1">
-        <v>27427</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C215" s="1">
-        <v>95320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C216" s="1">
-        <v>6898</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C217" s="1">
-        <v>30711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>111</v>
+      <c r="A218" t="s">
+        <v>14</v>
       </c>
       <c r="C218" s="1">
-        <f>SUM(C213:C217)</f>
-        <v>298950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C219" s="1">
-        <v>381131</v>
+        <v>185</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C220" s="1">
-        <v>43481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C221" s="1">
-        <v>37126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>110</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B222" s="2"/>
       <c r="C222" s="1">
-        <v>453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>113</v>
-      </c>
-      <c r="C223" s="1">
-        <v>12576</v>
+      <c r="A223" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" s="3">
+        <f>SUM(C214:C222)</f>
+        <v>13414</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C224" s="3">
-        <f>SUM(C219:C223)</f>
-        <v>474767</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>112</v>
-      </c>
-      <c r="C225" s="1">
-        <v>171203</v>
+      <c r="C224" s="1">
+        <f>C223+C213+C203+C201+C191+C189+C145+C150+C159+C163+C169+C179</f>
+        <v>3164278</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C226" s="1">
-        <v>7532</v>
+        <v>138594</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C227" s="1">
-        <v>13828</v>
+        <v>27427</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C228" s="1">
-        <v>2979</v>
+        <v>95320</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>110</v>
+      </c>
+      <c r="C229" s="1">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>113</v>
       </c>
-      <c r="C229" s="1">
-        <v>6032</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C230" s="3">
-        <f>SUM(C225:C229)</f>
-        <v>201574</v>
+      <c r="C230" s="1">
+        <v>30711</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>112</v>
+      <c r="A231" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C231" s="1">
-        <v>149720</v>
+        <f>SUM(C226:C230)</f>
+        <v>298950</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C232" s="1">
-        <v>17092</v>
+        <v>381131</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C233" s="1">
-        <v>9485</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C234" s="1">
-        <v>3129</v>
+        <v>37126</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>110</v>
+      </c>
+      <c r="C235" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>113</v>
       </c>
-      <c r="C235" s="1">
-        <v>82977</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C236" s="3">
-        <f>SUM(C231:C235)</f>
-        <v>262403</v>
+      <c r="C236" s="1">
+        <v>12576</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>112</v>
-      </c>
-      <c r="C237" s="1">
-        <v>77759</v>
+      <c r="A237" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C237" s="3">
+        <f>SUM(C232:C236)</f>
+        <v>474767</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C238" s="1">
-        <v>24732</v>
+        <v>171203</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C239" s="1">
-        <v>258676</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C240" s="1">
-        <v>16598</v>
+        <v>13828</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>110</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>113</v>
       </c>
-      <c r="C241" s="1">
-        <v>38681</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C242" s="3">
-        <f>SUM(C237:C241)</f>
-        <v>416446</v>
+      <c r="C242" s="1">
+        <v>6032</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>112</v>
-      </c>
-      <c r="C243" s="1">
-        <v>80241</v>
+      <c r="A243" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C243" s="3">
+        <f>SUM(C238:C242)</f>
+        <v>201574</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C244" s="1">
-        <v>8014</v>
+        <v>149720</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C245" s="1">
-        <v>4400</v>
+        <v>17092</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C246" s="1">
-        <v>0</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>110</v>
+      </c>
+      <c r="C247" s="1">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>113</v>
       </c>
-      <c r="C247" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C248" s="3">
-        <f>SUM(C243:C247)</f>
-        <v>92675</v>
+      <c r="C248" s="1">
+        <v>82977</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>112</v>
-      </c>
-      <c r="C249" s="1">
-        <v>156870</v>
+      <c r="A249" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C249" s="3">
+        <f>SUM(C244:C248)</f>
+        <v>262403</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C250" s="1">
-        <v>17363</v>
+        <v>77759</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C251" s="1">
-        <v>81811</v>
+        <v>24732</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C252" s="1">
-        <v>5909</v>
+        <v>258676</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>110</v>
+      </c>
+      <c r="C253" s="1">
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>113</v>
       </c>
-      <c r="C253" s="1">
-        <v>31013</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C254" s="3">
-        <f>SUM(C249:C253)</f>
-        <v>292966</v>
+      <c r="C254" s="1">
+        <v>38681</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>112</v>
-      </c>
-      <c r="C255" s="1">
-        <v>65249</v>
+      <c r="A255" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C255" s="3">
+        <f>SUM(C250:C254)</f>
+        <v>416446</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C256" s="1">
-        <v>83822</v>
+        <v>80241</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C257" s="1">
-        <v>25774</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C258" s="1">
-        <v>171</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>110</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>113</v>
       </c>
-      <c r="C259" s="1">
-        <v>18091</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C260" s="3">
-        <f>SUM(C255:C259)</f>
-        <v>193107</v>
+      <c r="C260" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>112</v>
-      </c>
-      <c r="C261" s="1">
-        <v>51760</v>
+      <c r="A261" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C261" s="3">
+        <f>SUM(C256:C260)</f>
+        <v>92675</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C262" s="1">
-        <v>2579</v>
+        <v>156870</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C263" s="1">
-        <v>8884</v>
+        <v>17363</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C264" s="1">
-        <v>286</v>
+        <v>81811</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>110</v>
+      </c>
+      <c r="C265" s="1">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>113</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C266" s="1">
+        <v>31013</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C267" s="3">
+        <f>SUM(C262:C266)</f>
+        <v>292966</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>112</v>
+      </c>
+      <c r="C268" s="1">
+        <v>65249</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>108</v>
+      </c>
+      <c r="C269" s="1">
+        <v>83822</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>109</v>
+      </c>
+      <c r="C270" s="1">
+        <v>25774</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>110</v>
+      </c>
+      <c r="C271" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>113</v>
+      </c>
+      <c r="C272" s="1">
+        <v>18091</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C273" s="3">
+        <f>SUM(C268:C272)</f>
+        <v>193107</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>112</v>
+      </c>
+      <c r="C274" s="1">
+        <v>51760</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>108</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>109</v>
+      </c>
+      <c r="C276" s="1">
+        <v>8884</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>110</v>
+      </c>
+      <c r="C277" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>113</v>
+      </c>
+      <c r="C278" s="1">
         <v>7247</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C266" s="3">
-        <f>SUM(C261:C265)</f>
+      <c r="C279" s="3">
+        <f>SUM(C274:C278)</f>
         <v>70756</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B269" s="1"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B270" s="1"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B271" s="1"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="1"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="2"/>
-      <c r="B274" s="3"/>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B283" s="1"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B285" s="1"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B286" s="1"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2"/>
+      <c r="B287" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11215,7 +14157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CDE268-4729-47D0-A012-1CA1B2B15A76}">
   <dimension ref="A1:G733"/>
   <sheetViews>
